--- a/wwwroot/Reports/report_order.xlsx
+++ b/wwwroot/Reports/report_order.xlsx
@@ -31,7 +31,7 @@
     <t>Имя</t>
   </si>
   <si>
-    <t>андрей</t>
+    <t>Андрей</t>
   </si>
   <si>
     <t>Номер</t>
@@ -49,16 +49,16 @@
     <t>Фамилия</t>
   </si>
   <si>
-    <t>щапов</t>
-  </si>
-  <si>
-    <t>j-20126</t>
+    <t>Щапов</t>
+  </si>
+  <si>
+    <t>о-12</t>
   </si>
   <si>
     <t xml:space="preserve">Отчество </t>
   </si>
   <si>
-    <t>александрович</t>
+    <t>Александрович</t>
   </si>
   <si>
     <t>502as</t>
@@ -67,19 +67,19 @@
     <t>Дата оформления</t>
   </si>
   <si>
-    <t>25.04.2023 0:00:00</t>
+    <t>23.05.2023 0:00:00</t>
   </si>
   <si>
     <t>Дата доставки</t>
   </si>
   <si>
-    <t>08.04.2023 0:00:00</t>
+    <t>04.06.2023 0:00:00</t>
   </si>
   <si>
     <t>Адрес доставки</t>
   </si>
   <si>
-    <t>sasd</t>
+    <t>Муром пушкино 5</t>
   </si>
   <si>
     <t>Сумма заказа</t>
@@ -227,10 +227,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G3" s="4">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" ht="13.8">
@@ -294,7 +294,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>530</v>
+        <v>800</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
